--- a/teaching/traditional_assets/database/data/nigeria/nigeria_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/nigeria/nigeria_brokerage_investment_banking.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.168</v>
+        <v>0.133</v>
       </c>
       <c r="E2">
-        <v>0.183</v>
+        <v>0.224</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.1</v>
+        <v>14.9</v>
       </c>
       <c r="L2">
-        <v>0.4404761904761905</v>
+        <v>0.5665399239543726</v>
       </c>
       <c r="M2">
-        <v>5.52</v>
+        <v>7.84</v>
       </c>
       <c r="N2">
-        <v>0.1386934673366834</v>
+        <v>0.1058029689608637</v>
       </c>
       <c r="O2">
-        <v>0.4972972972972973</v>
+        <v>0.5261744966442953</v>
       </c>
       <c r="P2">
-        <v>5.52</v>
+        <v>7.84</v>
       </c>
       <c r="Q2">
-        <v>0.1386934673366834</v>
+        <v>0.1058029689608637</v>
       </c>
       <c r="R2">
-        <v>0.4972972972972973</v>
+        <v>0.5261744966442953</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>89.40000000000001</v>
+        <v>301.6</v>
       </c>
       <c r="V2">
-        <v>2.246231155778895</v>
+        <v>4.070175438596491</v>
       </c>
       <c r="W2">
-        <v>0.222</v>
+        <v>0.3260393873085339</v>
       </c>
       <c r="X2">
-        <v>0.1816603481119978</v>
+        <v>0.1115604283921338</v>
       </c>
       <c r="Y2">
-        <v>0.04033965188800223</v>
+        <v>0.2144789589164001</v>
       </c>
       <c r="Z2">
-        <v>0.3870967741935483</v>
+        <v>0.267005076142132</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.08567353175851926</v>
+        <v>0.07155442695350728</v>
       </c>
       <c r="AC2">
-        <v>-0.08567353175851926</v>
+        <v>-0.07155442695350728</v>
       </c>
       <c r="AD2">
-        <v>142.2</v>
+        <v>152.4</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>142.2</v>
+        <v>152.4</v>
       </c>
       <c r="AG2">
-        <v>52.79999999999998</v>
+        <v>-149.2</v>
       </c>
       <c r="AH2">
-        <v>0.7813186813186812</v>
+        <v>0.6728476821192053</v>
       </c>
       <c r="AI2">
-        <v>0.756785524215008</v>
+        <v>0.7437774524158126</v>
       </c>
       <c r="AJ2">
-        <v>0.570194384449244</v>
+        <v>1.986684420772303</v>
       </c>
       <c r="AK2">
-        <v>0.5360406091370558</v>
+        <v>1.542916235780765</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.168</v>
+        <v>0.133</v>
       </c>
       <c r="E3">
-        <v>0.183</v>
+        <v>0.224</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.1</v>
+        <v>14.9</v>
       </c>
       <c r="L3">
-        <v>0.4404761904761905</v>
+        <v>0.5665399239543726</v>
       </c>
       <c r="M3">
-        <v>5.52</v>
+        <v>7.84</v>
       </c>
       <c r="N3">
-        <v>0.1386934673366834</v>
+        <v>0.1058029689608637</v>
       </c>
       <c r="O3">
-        <v>0.4972972972972973</v>
+        <v>0.5261744966442953</v>
       </c>
       <c r="P3">
-        <v>5.52</v>
+        <v>7.84</v>
       </c>
       <c r="Q3">
-        <v>0.1386934673366834</v>
+        <v>0.1058029689608637</v>
       </c>
       <c r="R3">
-        <v>0.4972972972972973</v>
+        <v>0.5261744966442953</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>89.40000000000001</v>
+        <v>301.6</v>
       </c>
       <c r="V3">
-        <v>2.246231155778895</v>
+        <v>4.070175438596491</v>
       </c>
       <c r="W3">
-        <v>0.222</v>
+        <v>0.3260393873085339</v>
       </c>
       <c r="X3">
-        <v>0.1816603481119978</v>
+        <v>0.1115604283921338</v>
       </c>
       <c r="Y3">
-        <v>0.04033965188800223</v>
+        <v>0.2144789589164001</v>
       </c>
       <c r="Z3">
-        <v>0.3870967741935483</v>
+        <v>0.267005076142132</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.08567353175851926</v>
+        <v>0.07155442695350728</v>
       </c>
       <c r="AC3">
-        <v>-0.08567353175851926</v>
+        <v>-0.07155442695350728</v>
       </c>
       <c r="AD3">
-        <v>142.2</v>
+        <v>152.4</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>142.2</v>
+        <v>152.4</v>
       </c>
       <c r="AG3">
-        <v>52.79999999999998</v>
+        <v>-149.2</v>
       </c>
       <c r="AH3">
-        <v>0.7813186813186812</v>
+        <v>0.6728476821192053</v>
       </c>
       <c r="AI3">
-        <v>0.756785524215008</v>
+        <v>0.7437774524158126</v>
       </c>
       <c r="AJ3">
-        <v>0.570194384449244</v>
+        <v>1.986684420772303</v>
       </c>
       <c r="AK3">
-        <v>0.5360406091370558</v>
+        <v>1.542916235780765</v>
       </c>
       <c r="AL3">
         <v>0</v>
